--- a/Luban/ExcelConfig/Datas/game_singleton.xlsx
+++ b/Luban/ExcelConfig/Datas/game_singleton.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/Luban/ExcelConfig/Datas/game_singleton.xlsx
+++ b/Luban/ExcelConfig/Datas/game_singleton.xlsx
@@ -4,22 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>##var</t>
-  </si>
-  <si>
-    <t>card_backpack_cap</t>
   </si>
   <si>
     <t>card_store_refresh_cost</t>
@@ -40,9 +50,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>卡牌背包容量</t>
-  </si>
-  <si>
     <t>卡牌商店刷新消耗金币</t>
   </si>
   <si>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -990,27 +997,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="64.125" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="64.125" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,27 +1026,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -1053,28 +1053,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+    <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:3">
       <c r="B7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
         <v>10</v>
       </c>
     </row>
